--- a/RESTAPI-Outline.xlsx
+++ b/RESTAPI-Outline.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{880F6AF4-351F-4EBE-A467-E7AFB68C3556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="RESTful API" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="RESTful API" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -20,210 +29,201 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">RESOURCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPERATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">METHOD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROUTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PARAMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUCCESS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERRORS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schema</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read all users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array of user objects as JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not found message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">application/json
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
+  <si>
+    <t>RESOURCE</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>METHOD</t>
+  </si>
+  <si>
+    <t>ROUTE</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>ERRORS</t>
+  </si>
+  <si>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Read all users</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/users</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>array of user objects as JSON</t>
+  </si>
+  <si>
+    <t>not found message</t>
+  </si>
+  <si>
+    <t>Create new user</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>application/json
 { name: [str] }</t>
   </si>
   <si>
-    <t xml:space="preserve">{ name: "Alice" }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the URL/id of the newly created resource</t>
-  </si>
-  <si>
-    <t xml:space="preserve">explanation of invalid data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read one user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/users/:id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id=[int]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the user object as JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400
+    <t>{ name: "Alice" }</t>
+  </si>
+  <si>
+    <t>the URL/id of the newly created resource</t>
+  </si>
+  <si>
+    <t>explanation of invalid data</t>
+  </si>
+  <si>
+    <t>Read one user</t>
+  </si>
+  <si>
+    <t>/users/:id</t>
+  </si>
+  <si>
+    <t>id=[int]</t>
+  </si>
+  <si>
+    <t>the user object as JSON</t>
+  </si>
+  <si>
+    <t>400
 404</t>
   </si>
   <si>
-    <t xml:space="preserve">explanation of invalid data
+    <t>explanation of invalid data
 not found message</t>
   </si>
   <si>
-    <t xml:space="preserve">Update one user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete one user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELETE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read all areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/areas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array of area objects as JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{ name: "Programming" }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read one area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/areas/:id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the area object as JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update one area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete one area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read all locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/locations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array of location objects as JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read one location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/locations/:id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the location object as JSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update one location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete one location</t>
+    <t>Update one user</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Delete one user</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Read all areas</t>
+  </si>
+  <si>
+    <t>/areas</t>
+  </si>
+  <si>
+    <t>array of area objects as JSON</t>
+  </si>
+  <si>
+    <t>Create new area</t>
+  </si>
+  <si>
+    <t>{ "Location": "Vile Maw Pit","SubLocation":"VlieMaw" }</t>
+  </si>
+  <si>
+    <t>Read one area</t>
+  </si>
+  <si>
+    <t>/areas/:id</t>
+  </si>
+  <si>
+    <t>the area object as JSON</t>
+  </si>
+  <si>
+    <t>Update one area</t>
+  </si>
+  <si>
+    <t>{ "Description": "Sample Description" }</t>
+  </si>
+  <si>
+    <t>Delete one area</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Read all champions</t>
+  </si>
+  <si>
+    <t>/champions</t>
+  </si>
+  <si>
+    <t>array of champion objects as JSON</t>
+  </si>
+  <si>
+    <t>Create new champion</t>
+  </si>
+  <si>
+    <t>{ Champ name: "Zoe","ArchType":"Mage","Difficulty":"Very Hard" }</t>
+  </si>
+  <si>
+    <t>Read one champion</t>
+  </si>
+  <si>
+    <t>/champions/:id</t>
+  </si>
+  <si>
+    <t>the champion object as JSON</t>
+  </si>
+  <si>
+    <t>Update one champion</t>
+  </si>
+  <si>
+    <t>{ "Difficuty": "Hard" }</t>
+  </si>
+  <si>
+    <t>Delete one champion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -281,7 +281,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -345,14 +345,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF808080"/>
       </left>
@@ -367,179 +367,115 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="36">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="17">
+    <cellStyle name="Accent 1 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Accent 2 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Accent 3 7" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Accent 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Bad 8" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Error 9" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Footnote 10" xfId="7" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Good 11" xfId="8" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Heading 1 13" xfId="9" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Heading 12" xfId="10" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Heading 2 14" xfId="11" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Neutral 15" xfId="12" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Accent 1 5" xfId="20"/>
-    <cellStyle name="Accent 2 6" xfId="21"/>
-    <cellStyle name="Accent 3 7" xfId="22"/>
-    <cellStyle name="Accent 4" xfId="23"/>
-    <cellStyle name="Bad 8" xfId="24"/>
-    <cellStyle name="Error 9" xfId="25"/>
-    <cellStyle name="Footnote 10" xfId="26"/>
-    <cellStyle name="Good 11" xfId="27"/>
-    <cellStyle name="Heading 1 13" xfId="28"/>
-    <cellStyle name="Heading 12" xfId="29"/>
-    <cellStyle name="Heading 2 14" xfId="30"/>
-    <cellStyle name="Neutral 15" xfId="31"/>
-    <cellStyle name="Note 16" xfId="32"/>
-    <cellStyle name="Status 17" xfId="33"/>
-    <cellStyle name="Text 18" xfId="34"/>
-    <cellStyle name="Warning 19" xfId="35"/>
+    <cellStyle name="Note 16" xfId="13" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Status 17" xfId="14" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Text 18" xfId="15" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Warning 19" xfId="16" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -598,91 +534,399 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.02"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="4" t="s">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" ht="25.5">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -703,21 +947,21 @@
       <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6" t="n">
+      <c r="H3" s="6">
         <v>200</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="8">
         <v>404</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:11" ht="38.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
@@ -736,21 +980,21 @@
       <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="10">
         <v>201</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="9" t="n">
+      <c r="J4" s="9">
         <v>400</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:11" ht="51">
+      <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
         <v>26</v>
       </c>
@@ -769,7 +1013,7 @@
       <c r="G5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>200</v>
       </c>
       <c r="I5" s="10" t="s">
@@ -782,8 +1026,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:11" ht="51">
+      <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
@@ -802,7 +1046,7 @@
       <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>204</v>
       </c>
       <c r="I6" s="10" t="s">
@@ -815,8 +1059,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:11" ht="25.5">
+      <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
@@ -835,21 +1079,21 @@
       <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="12">
         <v>204</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="12">
         <v>404</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:11" ht="30.2" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -870,21 +1114,21 @@
       <c r="G8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="6" t="n">
+      <c r="H8" s="6">
         <v>200</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>404</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:11" ht="35.25" customHeight="1">
+      <c r="A9" s="1"/>
       <c r="B9" s="9" t="s">
         <v>40</v>
       </c>
@@ -903,21 +1147,21 @@
       <c r="G9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="10" t="n">
+      <c r="H9" s="10">
         <v>201</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="9" t="n">
+      <c r="J9" s="9">
         <v>400</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:11" ht="46.15" customHeight="1">
+      <c r="A10" s="1"/>
       <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
@@ -936,7 +1180,7 @@
       <c r="G10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="10" t="n">
+      <c r="H10" s="10">
         <v>200</v>
       </c>
       <c r="I10" s="10" t="s">
@@ -949,8 +1193,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="46.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:11" ht="46.15" customHeight="1">
+      <c r="A11" s="1"/>
       <c r="B11" s="9" t="s">
         <v>45</v>
       </c>
@@ -967,9 +1211,9 @@
         <v>22</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="10" t="n">
+        <v>46</v>
+      </c>
+      <c r="H11" s="10">
         <v>204</v>
       </c>
       <c r="I11" s="10" t="s">
@@ -982,10 +1226,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:11" ht="30.2" customHeight="1">
+      <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>35</v>
@@ -1002,31 +1246,31 @@
       <c r="G12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="12">
         <v>204</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="12" t="n">
+      <c r="J12" s="12">
         <v>404</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>47</v>
+    <row r="13" spans="1:11" ht="25.5">
+      <c r="A13" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>15</v>
@@ -1037,29 +1281,29 @@
       <c r="G13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="6" t="n">
+      <c r="H13" s="6">
         <v>200</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="8" t="n">
+        <v>51</v>
+      </c>
+      <c r="J13" s="8">
         <v>404</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:11" ht="76.5">
+      <c r="A14" s="1"/>
       <c r="B14" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>15</v>
@@ -1068,31 +1312,31 @@
         <v>22</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="10" t="n">
+        <v>53</v>
+      </c>
+      <c r="H14" s="10">
         <v>201</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="9" t="n">
+      <c r="J14" s="9">
         <v>400</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:11" ht="51">
+      <c r="A15" s="1"/>
       <c r="B15" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>28</v>
@@ -1103,11 +1347,11 @@
       <c r="G15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="10" t="n">
+      <c r="H15" s="10">
         <v>200</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>30</v>
@@ -1116,16 +1360,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="47.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:11" ht="51">
+      <c r="A16" s="1"/>
       <c r="B16" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>28</v>
@@ -1134,9 +1378,9 @@
         <v>22</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="10" t="n">
+        <v>58</v>
+      </c>
+      <c r="H16" s="10">
         <v>204</v>
       </c>
       <c r="I16" s="10" t="s">
@@ -1149,16 +1393,16 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:11" ht="25.5">
+      <c r="A17" s="1"/>
       <c r="B17" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>28</v>
@@ -1169,13 +1413,13 @@
       <c r="G17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="12" t="n">
+      <c r="H17" s="12">
         <v>204</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J17" s="12" t="n">
+      <c r="J17" s="12">
         <v>404</v>
       </c>
       <c r="K17" s="10" t="s">
@@ -1184,21 +1428,20 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
